--- a/model_exports/labels/2.0_True_False_0_4.xlsx
+++ b/model_exports/labels/2.0_True_False_0_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-583290347863851008</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-638852256234913792</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-658615758751211520</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-658616745809330176</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,46 +661,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-588022316359151617</t>
+          <t>t-658617481574092800</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-588515231380348928</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-588525414441553920</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-588659923807907840</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-605091889558261760</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,72 +726,72 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-605138894867161088</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-605351836636311552</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-784233737512890376</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-784234780590080001</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-848784048755531776</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-848852185962037248</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-848864915762929664</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-848891572318072832</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-849117747430797312</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-849222321772658688</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-849255695249625088</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,33 +882,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-849369868306665472</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-849634891255951364</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-849637507117568000</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-849667565186146304</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-849686849312501763</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-849743357312024576</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-850026468906340353</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-850319148420694016</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,24 +986,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-850426637086842884</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-850856929295552513</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,46 +1051,46 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-950310866641149952</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,37 +1116,37 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-977248381662892039</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-977294782048428032</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,33 +1168,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,46 +1207,46 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,11 +1259,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,24 +1272,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -1298,33 +1298,33 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,11 +1376,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,14 +1389,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1474,26 +1474,26 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,20 +1532,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,63 +1584,63 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-752623570010812416</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-752689111933214722</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-752696262009450496</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-752724839081791488</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,37 +1662,37 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1701,59 +1701,59 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-840253641885913088</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,37 +1805,37 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-743488475874353153</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,50 +1844,50 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-743501818358042625</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-575924078906904576</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,46 +1909,46 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,20 +1961,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-560163999057448960</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,46 +1987,46 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,11 +2039,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2052,20 +2052,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-624561158788247552</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,63 +2117,63 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-873219337427062785</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2182,24 +2182,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,33 +2208,33 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2260,50 +2260,50 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-621875663901863937</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,63 +2351,63 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-941641219024748544</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2416,11 +2416,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2429,20 +2429,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,20 +2455,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,37 +2481,37 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-888405582352437248</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,46 +2546,46 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1042035586717110280</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1025638750783778816</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,20 +2598,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-692385146725646340</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,37 +2702,37 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,11 +2754,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -2767,59 +2767,59 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,33 +2832,33 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-833578679338942464</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,20 +2871,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,33 +2897,33 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-802968858214760448</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-802970857136123904</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-802986234171768832</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-802996470555279360</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,59 +3001,59 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-803023904860151808</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-803063479473176576</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-803165461336555521</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-803184972723081216</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-803191488880513024</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-803213114628014080</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-533830044200599552</t>
+          <t>t-803415757417758721</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,33 +3092,33 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-534294668842766337</t>
+          <t>t-804486553280069633</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,24 +3131,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,24 +3170,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,24 +3209,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3235,37 +3235,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-845940693256286208</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-849475288652238849</t>
+          <t>t-1014627656082579457</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,33 +3274,33 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,50 +3326,50 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-563347902408695811</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,11 +3378,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -3391,20 +3391,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,63 +3443,63 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,24 +3508,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,20 +3547,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,72 +3573,72 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-573120640175112192</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,37 +3690,37 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3729,37 +3729,37 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,7 +3768,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,24 +3820,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,20 +3911,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-889534953825779712</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,50 +3963,50 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-889639312169500672</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -4015,33 +4015,33 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,7 +4067,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-837738761547091968</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,7 +4093,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,72 +4106,72 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B286" t="n">
         <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-1049725086469685248</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,85 +4197,85 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-735633517237919744</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-1055172080499515392</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-1055204302220943368</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-648598850530226176</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-677918822104473600</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-765678719205724160</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,46 +4353,46 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-803234433000148994</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-803236909183107073</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-803260822801649664</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-803260889940062209</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-803271446357282816</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,59 +4444,59 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-715587588204015616</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,24 +4509,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,20 +4535,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,7 +4561,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,20 +4574,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,33 +4613,33 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,7 +4652,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4665,33 +4665,33 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,33 +4717,33 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-946020250805514240</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-895778141523894272</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,63 +4756,63 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,7 +4834,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4847,11 +4847,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,20 +4873,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,33 +4899,33 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,20 +4938,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,11 +4964,11 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,46 +4977,46 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-1041752836835614720</t>
+          <t>t-912214251749744641</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-521063203389050882</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-521358835361927168</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,85 +5107,85 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-881960500829016064</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,33 +5198,33 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,11 +5237,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-950172807996026880</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-950367246299394048</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-591229240311439360</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,33 +5315,33 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,20 +5354,20 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,37 +5406,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-965860574339923968</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,37 +5445,37 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -5484,46 +5484,46 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,20 +5536,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,46 +5588,46 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B397" t="n">
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-634983488203177984</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,33 +5692,33 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-842006165705875457</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-884135398854635520</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-884163532958441472</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,11 +5731,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-884173621224239104</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-884176826679136256</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,20 +5757,20 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-884179431887167489</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-884282035384320001</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,37 +5783,37 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-884290062598451200</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-884310032518664194</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-884325033430200320</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,11 +5861,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,59 +5887,59 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-1001548678748954624</t>
         </is>
       </c>
       <c r="B423" t="n">
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-1001557802375110657</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,46 +5952,46 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-1024937575906271233</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-764828802384007168</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-623733200322449409</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,59 +6056,59 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-958216984176427008</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,46 +6121,46 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-760176410539528192</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,7 +6173,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,11 +6186,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
         <v>0</v>
@@ -6199,20 +6199,20 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,20 +6238,20 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-594549643134009344</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,37 +6303,37 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B452" t="n">
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,11 +6342,11 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-612221773757681664</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6355,24 +6355,24 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B456" t="n">
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -6381,20 +6381,20 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-742289179535659008</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-743359058392940544</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,20 +6420,20 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,24 +6459,24 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-892583343426072576</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -6485,24 +6485,24 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-1018847155090542593</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,24 +6537,24 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -6563,24 +6563,24 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -6589,24 +6589,24 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6615,33 +6615,33 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,46 +6654,46 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,20 +6719,20 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-631869539597336576</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,11 +6758,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-632875946828255232</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,24 +6784,24 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -6836,20 +6836,20 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,24 +6862,24 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -6914,20 +6914,20 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,33 +6940,33 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6979,24 +6979,24 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,11 +7018,11 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,11 +7044,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -7057,33 +7057,33 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,7 +7122,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,7 +7135,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-862319925528023040</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,111 +7148,111 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-862320640791121920</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-906119454941171712</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-1030184521969410055</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,20 +7291,20 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-676725475671085057</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,20 +7343,20 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,46 +7369,46 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>0</v>
@@ -7447,20 +7447,20 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,11 +7486,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>0</v>
@@ -7499,46 +7499,46 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-852631745438601216</t>
+          <t>t-575891615593721856</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,20 +7551,20 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B548" t="n">
         <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,11 +7577,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,24 +7590,24 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,11 +7707,11 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,11 +7746,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,11 +7759,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-921445800072298496</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C564" t="n">
         <v>1</v>
@@ -7772,11 +7772,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-922085813818658816</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
         <v>0</v>
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,20 +7798,20 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,11 +7850,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,33 +7889,33 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-740084104088199168</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,24 +7941,24 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-706517570451427328</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,50 +7993,50 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-718742884065759233</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,11 +8045,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,46 +8071,46 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,11 +8136,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
         <v>1</v>
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,7 +8188,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,33 +8201,33 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,11 +8240,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
         <v>1</v>
@@ -8253,11 +8253,11 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
         <v>1</v>
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,11 +8292,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,24 +8305,24 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,24 +8344,24 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,24 +8396,24 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
         <v>1</v>
@@ -8422,20 +8422,20 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,20 +8474,20 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-832449416082579456</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-842271490141634560</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,20 +8513,20 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-842322052103122944</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-842905808266448896</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-842910185718931456</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,20 +8565,20 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-669092226840981504</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,33 +8604,33 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>1</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,11 +8656,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-563978477183840256</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,11 +8695,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,37 +8799,37 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
         <v>1</v>
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,24 +8929,24 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-930049646444945408</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-930646694097645568</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,24 +9046,24 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,33 +9072,33 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B665" t="n">
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-681630649879543808</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,24 +9124,24 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,11 +9150,11 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,59 +9163,59 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,37 +9267,37 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-734985227739619329</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,24 +9358,24 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B687" t="n">
         <v>0</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-780018288940158976</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-781093621592383488</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,50 +9462,50 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-895185499131961344</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -9514,24 +9514,24 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-698712295900229633</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,24 +9540,24 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>0</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,33 +9618,33 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B708" t="n">
         <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,11 +9657,11 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -9670,20 +9670,20 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,33 +9696,33 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-741496457824374784</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,33 +9735,33 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,11 +9813,11 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,24 +9839,24 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-1016913242839367680</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,11 +9930,11 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-928096679089209344</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C731" t="n">
         <v>1</v>
@@ -9943,26 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-940573035752386560</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-833912149630078976</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
